--- a/Jogos_do_Dia/2023-03-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>League</t>
   </si>
@@ -139,6 +139,9 @@
     <t>England EFL League One</t>
   </si>
   <si>
+    <t>Brazil Copa do Nordeste</t>
+  </si>
+  <si>
     <t>Brazil Pernambucano 1</t>
   </si>
   <si>
@@ -187,12 +190,12 @@
     <t>Woking</t>
   </si>
   <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
     <t>Gateshead</t>
   </si>
   <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
     <t>Crawley Town</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
     <t>Boreham Wood</t>
   </si>
   <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -253,12 +259,12 @@
     <t>Barnet</t>
   </si>
   <si>
+    <t>Oldham Athletic</t>
+  </si>
+  <si>
     <t>Dagenham &amp; Redbridge</t>
   </si>
   <si>
-    <t>Oldham Athletic</t>
-  </si>
-  <si>
     <t>Grimsby Town</t>
   </si>
   <si>
@@ -269,6 +275,9 @@
   </si>
   <si>
     <t>Torquay United</t>
+  </si>
+  <si>
+    <t>Ceará</t>
   </si>
   <si>
     <t>Íbis</t>
@@ -639,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,19 +769,19 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="G2">
         <v>3.05</v>
       </c>
       <c r="H2">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -787,7 +796,7 @@
         <v>2.68</v>
       </c>
       <c r="M2">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="N2">
         <v>1.55</v>
@@ -832,25 +841,25 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -864,19 +873,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I3">
         <v>1.09</v>
@@ -891,10 +900,10 @@
         <v>2.55</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O3">
         <v>1.56</v>
@@ -968,19 +977,19 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="G4">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="H4">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="I4">
         <v>1.06</v>
@@ -995,10 +1004,10 @@
         <v>3.25</v>
       </c>
       <c r="M4">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="N4">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="O4">
         <v>1.4</v>
@@ -1037,28 +1046,28 @@
         <v>3.21</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1072,19 +1081,19 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="G5">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1.06</v>
@@ -1099,10 +1108,10 @@
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="N5">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O5">
         <v>1.36</v>
@@ -1141,13 +1150,13 @@
         <v>2.51</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1156,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1176,19 +1185,19 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="G6">
+        <v>3.2</v>
+      </c>
+      <c r="H6">
         <v>3.3</v>
-      </c>
-      <c r="H6">
-        <v>3.05</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1203,10 +1212,10 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="N6">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O6">
         <v>1.36</v>
@@ -1254,16 +1263,16 @@
         <v>2.85</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE6">
         <v>1.9</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1280,19 +1289,19 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="G7">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="I7">
         <v>1.08</v>
@@ -1307,7 +1316,7 @@
         <v>2.85</v>
       </c>
       <c r="M7">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
         <v>1.55</v>
@@ -1384,10 +1393,10 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>3.5</v>
@@ -1411,7 +1420,7 @@
         <v>2.82</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N8">
         <v>1.6</v>
@@ -1488,25 +1497,25 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>4.6</v>
+        <v>5.75</v>
       </c>
       <c r="G9">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H9">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>1.11</v>
@@ -1515,10 +1524,10 @@
         <v>5.2</v>
       </c>
       <c r="M9">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="N9">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="O9">
         <v>1.29</v>
@@ -1557,13 +1566,13 @@
         <v>3.32</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1572,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1592,19 +1601,19 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="G10">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H10">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="I10">
         <v>1.04</v>
@@ -1619,10 +1628,10 @@
         <v>3.75</v>
       </c>
       <c r="M10">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O10">
         <v>1.35</v>
@@ -1661,25 +1670,25 @@
         <v>2.71</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1696,19 +1705,19 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1723,10 +1732,10 @@
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="N11">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="O11">
         <v>1.4</v>
@@ -1765,13 +1774,13 @@
         <v>2.91</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1780,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1800,10 +1809,10 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>2.02</v>
@@ -1869,13 +1878,13 @@
         <v>2.79</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1904,19 +1913,19 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G13">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H13">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -1931,10 +1940,10 @@
         <v>3.5</v>
       </c>
       <c r="M13">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="N13">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O13">
         <v>1.4</v>
@@ -1973,13 +1982,13 @@
         <v>3.01</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2008,19 +2017,19 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="G14">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H14">
-        <v>4.05</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>1.04</v>
@@ -2038,7 +2047,7 @@
         <v>1.7</v>
       </c>
       <c r="N14">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <v>1.36</v>
@@ -2109,100 +2118,100 @@
         <v>45013.65625</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="G15">
+        <v>3.35</v>
+      </c>
+      <c r="H15">
+        <v>2.6</v>
+      </c>
+      <c r="I15">
+        <v>1.06</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>1.28</v>
+      </c>
+      <c r="L15">
         <v>3.5</v>
       </c>
-      <c r="H15">
-        <v>2.88</v>
-      </c>
-      <c r="I15">
-        <v>1.05</v>
-      </c>
-      <c r="J15">
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <v>1.22</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N15">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O15">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P15">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R15">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="T15">
         <v>1.25</v>
       </c>
       <c r="U15">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="V15">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="W15">
-        <v>1.17</v>
+        <v>0.79</v>
       </c>
       <c r="X15">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="Y15">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Z15">
-        <v>3.07</v>
+        <v>2.73</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2213,100 +2222,100 @@
         <v>45013.65625</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="G16">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H16">
-        <v>2.67</v>
+        <v>3.45</v>
       </c>
       <c r="I16">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="N16">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="O16">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Q16">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R16">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S16">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="T16">
         <v>1.25</v>
       </c>
       <c r="U16">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="V16">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="W16">
-        <v>0.79</v>
+        <v>1.17</v>
       </c>
       <c r="X16">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="Y16">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Z16">
-        <v>2.73</v>
+        <v>3.07</v>
       </c>
       <c r="AA16">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AB16">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AC16">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="AD16">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AG16">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>2.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2320,19 +2329,19 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="G17">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H17">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2347,10 +2356,10 @@
         <v>3.25</v>
       </c>
       <c r="M17">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="N17">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="O17">
         <v>1.39</v>
@@ -2424,19 +2433,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="G18">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="I18">
         <v>1.09</v>
@@ -2445,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="M18">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="N18">
         <v>1.53</v>
@@ -2528,19 +2537,19 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="G19">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H19">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="I19">
         <v>1.04</v>
@@ -2555,10 +2564,10 @@
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="N19">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O19">
         <v>1.38</v>
@@ -2632,19 +2641,19 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="G20">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H20">
-        <v>4.65</v>
+        <v>4.95</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -2662,7 +2671,7 @@
         <v>1.86</v>
       </c>
       <c r="N20">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -2730,25 +2739,25 @@
         <v>41</v>
       </c>
       <c r="B21" s="2">
-        <v>45013.85416666666</v>
+        <v>45013.79166666666</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F21">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>6.87</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2763,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2775,34 +2784,34 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="W21">
-        <v>0.9</v>
+        <v>2.11</v>
       </c>
       <c r="X21">
-        <v>2.47</v>
+        <v>2.19</v>
       </c>
       <c r="Y21">
-        <v>1.34</v>
+        <v>2.06</v>
       </c>
       <c r="Z21">
-        <v>3.81</v>
+        <v>4.25</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2834,25 +2843,25 @@
         <v>42</v>
       </c>
       <c r="B22" s="2">
-        <v>45013.875</v>
+        <v>45013.85416666666</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22">
-        <v>1.81</v>
+        <v>1.46</v>
       </c>
       <c r="G22">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H22">
-        <v>3.8</v>
+        <v>6.87</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2867,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2879,34 +2888,34 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="X22">
-        <v>1.29</v>
+        <v>2.47</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Z22">
-        <v>1.29</v>
+        <v>3.81</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2941,22 +2950,22 @@
         <v>45013.875</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2971,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3001,39 +3010,143 @@
         <v>3</v>
       </c>
       <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>1.29</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1.29</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45013.875</v>
+      </c>
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>2.07</v>
       </c>
-      <c r="Z23">
+      <c r="Z24">
         <v>2.07</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-03-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>League</t>
   </si>
@@ -139,9 +139,6 @@
     <t>England EFL League One</t>
   </si>
   <si>
-    <t>Brazil Copa do Nordeste</t>
-  </si>
-  <si>
     <t>Brazil Pernambucano 1</t>
   </si>
   <si>
@@ -190,12 +187,12 @@
     <t>Woking</t>
   </si>
   <si>
+    <t>Gateshead</t>
+  </si>
+  <si>
     <t>Wealdstone</t>
   </si>
   <si>
-    <t>Gateshead</t>
-  </si>
-  <si>
     <t>Crawley Town</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>Boreham Wood</t>
   </si>
   <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -259,12 +253,12 @@
     <t>Barnet</t>
   </si>
   <si>
+    <t>Dagenham &amp; Redbridge</t>
+  </si>
+  <si>
     <t>Oldham Athletic</t>
   </si>
   <si>
-    <t>Dagenham &amp; Redbridge</t>
-  </si>
-  <si>
     <t>Grimsby Town</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
   </si>
   <si>
     <t>Torquay United</t>
-  </si>
-  <si>
-    <t>Ceará</t>
   </si>
   <si>
     <t>Íbis</t>
@@ -648,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,25 +754,25 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>45012.88194444445</v>
+        <v>45012.89583333334</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="G2">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -796,7 +787,7 @@
         <v>2.68</v>
       </c>
       <c r="M2">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="N2">
         <v>1.55</v>
@@ -823,7 +814,7 @@
         <v>1.57</v>
       </c>
       <c r="V2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -873,19 +864,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
         <v>1.09</v>
@@ -900,10 +891,10 @@
         <v>2.55</v>
       </c>
       <c r="M3">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="N3">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="O3">
         <v>1.56</v>
@@ -927,10 +918,10 @@
         <v>1.6</v>
       </c>
       <c r="V3">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="W3">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X3">
         <v>1.69</v>
@@ -977,19 +968,19 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="G4">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="H4">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I4">
         <v>1.06</v>
@@ -1004,10 +995,10 @@
         <v>3.25</v>
       </c>
       <c r="M4">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="N4">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O4">
         <v>1.4</v>
@@ -1031,10 +1022,10 @@
         <v>1.41</v>
       </c>
       <c r="V4">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="W4">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="X4">
         <v>1.66</v>
@@ -1081,19 +1072,19 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="I5">
         <v>1.06</v>
@@ -1108,10 +1099,10 @@
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="N5">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O5">
         <v>1.36</v>
@@ -1159,19 +1150,19 @@
         <v>2.45</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF5">
         <v>1.89</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1185,19 +1176,19 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="G6">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1212,10 +1203,10 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="N6">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O6">
         <v>1.36</v>
@@ -1289,19 +1280,19 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="G7">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="H7">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="I7">
         <v>1.08</v>
@@ -1316,7 +1307,7 @@
         <v>2.85</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="N7">
         <v>1.55</v>
@@ -1370,10 +1361,10 @@
         <v>1.51</v>
       </c>
       <c r="AE7">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AF7">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AG7">
         <v>3.2</v>
@@ -1393,19 +1384,19 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I8">
         <v>1.11</v>
@@ -1420,10 +1411,10 @@
         <v>2.82</v>
       </c>
       <c r="M8">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N8">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O8">
         <v>1.51</v>
@@ -1471,16 +1462,16 @@
         <v>1.77</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AE8">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="AF8">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1497,19 +1488,19 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9">
-        <v>5.75</v>
+        <v>5.95</v>
       </c>
       <c r="G9">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H9">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="I9">
         <v>1.01</v>
@@ -1524,10 +1515,10 @@
         <v>5.2</v>
       </c>
       <c r="M9">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="N9">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="O9">
         <v>1.29</v>
@@ -1578,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF9">
         <v>1.51</v>
@@ -1601,19 +1592,19 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="I10">
         <v>1.04</v>
@@ -1628,10 +1619,10 @@
         <v>3.75</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O10">
         <v>1.35</v>
@@ -1679,7 +1670,7 @@
         <v>2.3</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE10">
         <v>1.58</v>
@@ -1691,7 +1682,7 @@
         <v>2.45</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1705,19 +1696,19 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H11">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1732,10 +1723,10 @@
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O11">
         <v>1.4</v>
@@ -1786,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF11">
         <v>1.64</v>
@@ -1809,10 +1800,10 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>2.02</v>
@@ -1821,7 +1812,7 @@
         <v>3.3</v>
       </c>
       <c r="H12">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="I12">
         <v>1.03</v>
@@ -1836,10 +1827,10 @@
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -1887,19 +1878,19 @@
         <v>2.88</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1913,19 +1904,19 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="G13">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -1940,10 +1931,10 @@
         <v>3.5</v>
       </c>
       <c r="M13">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="N13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
         <v>1.4</v>
@@ -1994,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2017,16 +2008,16 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="G14">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -2047,7 +2038,7 @@
         <v>1.7</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O14">
         <v>1.36</v>
@@ -2118,100 +2109,100 @@
         <v>45013.65625</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G15">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="H15">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I15">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O15">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P15">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Q15">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R15">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S15">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="T15">
         <v>1.25</v>
       </c>
       <c r="U15">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="V15">
-        <v>1.63</v>
+        <v>1.12</v>
       </c>
       <c r="W15">
-        <v>0.79</v>
+        <v>1.17</v>
       </c>
       <c r="X15">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="Y15">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Z15">
-        <v>2.73</v>
+        <v>3.07</v>
       </c>
       <c r="AA15">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AB15">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AC15">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="AD15">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AE15">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AF15">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AG15">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="AH15">
-        <v>2.77</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2222,100 +2213,100 @@
         <v>45013.65625</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="G16">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="H16">
-        <v>3.45</v>
+        <v>3.14</v>
       </c>
       <c r="I16">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="N16">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="O16">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P16">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R16">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S16">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="T16">
         <v>1.25</v>
       </c>
       <c r="U16">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="V16">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="W16">
-        <v>1.17</v>
+        <v>0.79</v>
       </c>
       <c r="X16">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="Y16">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Z16">
-        <v>3.07</v>
+        <v>2.73</v>
       </c>
       <c r="AA16">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AB16">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AC16">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF16">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2329,19 +2320,19 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="G17">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H17">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2356,10 +2347,10 @@
         <v>3.25</v>
       </c>
       <c r="M17">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="O17">
         <v>1.39</v>
@@ -2433,19 +2424,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
-        <v>2.62</v>
+        <v>3.01</v>
       </c>
       <c r="I18">
         <v>1.09</v>
@@ -2460,7 +2451,7 @@
         <v>2.45</v>
       </c>
       <c r="M18">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N18">
         <v>1.53</v>
@@ -2537,19 +2528,19 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19">
-        <v>2.64</v>
+        <v>2.95</v>
       </c>
       <c r="G19">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="H19">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I19">
         <v>1.04</v>
@@ -2564,7 +2555,7 @@
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="N19">
         <v>1.83</v>
@@ -2641,19 +2632,19 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G20">
         <v>3.7</v>
       </c>
       <c r="H20">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -2668,10 +2659,10 @@
         <v>3.15</v>
       </c>
       <c r="M20">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="N20">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -2739,79 +2730,79 @@
         <v>41</v>
       </c>
       <c r="B21" s="2">
-        <v>45013.79166666666</v>
+        <v>45013.85416666666</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V21">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="W21">
-        <v>2.11</v>
+        <v>0.9</v>
       </c>
       <c r="X21">
-        <v>2.19</v>
+        <v>2.47</v>
       </c>
       <c r="Y21">
-        <v>2.06</v>
+        <v>1.34</v>
       </c>
       <c r="Z21">
-        <v>4.25</v>
+        <v>3.81</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2829,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -2843,79 +2834,79 @@
         <v>42</v>
       </c>
       <c r="B22" s="2">
-        <v>45013.85416666666</v>
+        <v>45013.875</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22">
-        <v>1.46</v>
+        <v>2.3</v>
       </c>
       <c r="G22">
-        <v>3.85</v>
+        <v>3.23</v>
       </c>
       <c r="H22">
-        <v>6.87</v>
+        <v>2.45</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="N22">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="Q22">
-        <v>2.16</v>
+        <v>1.57</v>
       </c>
       <c r="R22">
-        <v>1.59</v>
+        <v>2.25</v>
       </c>
       <c r="S22">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="T22">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="U22">
-        <v>2.56</v>
+        <v>1.47</v>
       </c>
       <c r="V22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>2.47</v>
+        <v>1.29</v>
       </c>
       <c r="Y22">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>3.81</v>
+        <v>1.29</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2950,76 +2941,76 @@
         <v>45013.875</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="G23">
-        <v>3.25</v>
+        <v>3.04</v>
       </c>
       <c r="H23">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M23">
-        <v>1.67</v>
+        <v>2.55</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="O23">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="P23">
-        <v>3.09</v>
+        <v>2.32</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V23">
         <v>3</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X23">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="Z23">
-        <v>1.29</v>
+        <v>2.07</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -3043,110 +3034,6 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45013.875</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>3</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>2.07</v>
-      </c>
-      <c r="Z24">
-        <v>2.07</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
         <v>0</v>
       </c>
     </row>
